--- a/teaching/traditional_assets/database/data/malaysia/malaysia_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0699</v>
+        <v>0.0788</v>
       </c>
       <c r="E2">
-        <v>0.11</v>
+        <v>0.116</v>
       </c>
       <c r="F2">
-        <v>0.083</v>
+        <v>-0.10725</v>
       </c>
       <c r="G2">
-        <v>0.1181185192606322</v>
+        <v>0.1507861242825056</v>
       </c>
       <c r="H2">
-        <v>0.1181185192606322</v>
+        <v>0.1507861242825056</v>
       </c>
       <c r="I2">
-        <v>0.1353252210933102</v>
+        <v>0.1407976041926629</v>
       </c>
       <c r="J2">
-        <v>0.1163855091366215</v>
+        <v>0.1202715213990252</v>
       </c>
       <c r="K2">
-        <v>212.7</v>
+        <v>209.728</v>
       </c>
       <c r="L2">
-        <v>0.1065471121574914</v>
+        <v>0.1046808085849763</v>
       </c>
       <c r="M2">
-        <v>39.91</v>
+        <v>56.8</v>
       </c>
       <c r="N2">
-        <v>0.0203861674413853</v>
+        <v>0.03263598807177619</v>
       </c>
       <c r="O2">
-        <v>0.1876351669017395</v>
+        <v>0.2708269758925846</v>
       </c>
       <c r="P2">
-        <v>39.91</v>
+        <v>56.8</v>
       </c>
       <c r="Q2">
-        <v>0.0203861674413853</v>
+        <v>0.03263598807177619</v>
       </c>
       <c r="R2">
-        <v>0.1876351669017395</v>
+        <v>0.2708269758925846</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>470.53</v>
+        <v>365.82</v>
       </c>
       <c r="V2">
-        <v>0.240348367982837</v>
+        <v>0.2101918513453726</v>
       </c>
       <c r="W2">
-        <v>0.1579098891607888</v>
+        <v>0.2078169457093224</v>
       </c>
       <c r="X2">
-        <v>0.05365266514011797</v>
+        <v>0.04848642154645767</v>
       </c>
       <c r="Y2">
-        <v>0.1042572240206708</v>
+        <v>0.1593305241628648</v>
       </c>
       <c r="Z2">
-        <v>2.669487997865768</v>
+        <v>2.256755341137828</v>
       </c>
       <c r="AA2">
-        <v>0.1932428160653123</v>
+        <v>0.1437635940206736</v>
       </c>
       <c r="AB2">
-        <v>0.05340094080842425</v>
+        <v>0.04823145852529305</v>
       </c>
       <c r="AC2">
-        <v>0.1398143414374857</v>
+        <v>0.0955222249095907</v>
       </c>
       <c r="AD2">
-        <v>15.477</v>
+        <v>12.554</v>
       </c>
       <c r="AE2">
-        <v>5.691305657123833</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>21.16830565712383</v>
+        <v>12.554</v>
       </c>
       <c r="AG2">
-        <v>-449.3616943428761</v>
+        <v>-353.266</v>
       </c>
       <c r="AH2">
-        <v>0.0106971775719529</v>
+        <v>0.007161584607556116</v>
       </c>
       <c r="AI2">
-        <v>0.01501758061114705</v>
+        <v>0.008119396652640646</v>
       </c>
       <c r="AJ2">
-        <v>-0.2979183732571897</v>
+        <v>-0.2546714688597579</v>
       </c>
       <c r="AK2">
-        <v>-0.4785339337445026</v>
+        <v>-0.2992881796478006</v>
       </c>
       <c r="AL2">
-        <v>0.499</v>
+        <v>0.986</v>
       </c>
       <c r="AM2">
-        <v>0.499</v>
+        <v>0.986</v>
       </c>
       <c r="AN2">
-        <v>0.053316017196715</v>
+        <v>0.04216996976822305</v>
       </c>
       <c r="AO2">
-        <v>536.4729458917835</v>
+        <v>286.0933062880325</v>
       </c>
       <c r="AP2">
-        <v>-1.54798577393098</v>
+        <v>-1.186650990930467</v>
       </c>
       <c r="AQ2">
-        <v>536.4729458917835</v>
+        <v>286.0933062880325</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="E3">
-        <v>0.201</v>
+        <v>0.175</v>
       </c>
       <c r="F3">
-        <v>0.126</v>
+        <v>0.0285</v>
       </c>
       <c r="G3">
-        <v>0.1392270237370663</v>
+        <v>0.1808338720103426</v>
       </c>
       <c r="H3">
-        <v>0.1392270237370663</v>
+        <v>0.1808338720103426</v>
       </c>
       <c r="I3">
-        <v>0.1580857089837348</v>
+        <v>0.1536845507433743</v>
       </c>
       <c r="J3">
-        <v>0.1376973692302984</v>
+        <v>0.1312217194570136</v>
       </c>
       <c r="K3">
-        <v>90.8</v>
+        <v>80.5</v>
       </c>
       <c r="L3">
-        <v>0.1381618989653073</v>
+        <v>0.1300904977375566</v>
       </c>
       <c r="M3">
-        <v>29.5</v>
+        <v>39.8</v>
       </c>
       <c r="N3">
-        <v>0.02563434132777198</v>
+        <v>0.0397960203979602</v>
       </c>
       <c r="O3">
-        <v>0.3248898678414097</v>
+        <v>0.4944099378881987</v>
       </c>
       <c r="P3">
-        <v>29.5</v>
+        <v>39.8</v>
       </c>
       <c r="Q3">
-        <v>0.02563434132777198</v>
+        <v>0.0397960203979602</v>
       </c>
       <c r="R3">
-        <v>0.3248898678414097</v>
+        <v>0.4944099378881987</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,55 +779,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>132.7</v>
+        <v>125.4</v>
       </c>
       <c r="V3">
-        <v>0.1153110879388252</v>
+        <v>0.1253874612538746</v>
       </c>
       <c r="W3">
-        <v>0.3667205169628433</v>
+        <v>0.257847533632287</v>
       </c>
       <c r="X3">
-        <v>0.05339887248844247</v>
+        <v>0.0481836194140207</v>
       </c>
       <c r="Y3">
-        <v>0.3133216444744008</v>
+        <v>0.2096639142182663</v>
       </c>
       <c r="Z3">
-        <v>12.12761820757365</v>
+        <v>3.44223355788326</v>
       </c>
       <c r="AA3">
-        <v>1.669941122212359</v>
+        <v>0.4516958062380749</v>
       </c>
       <c r="AB3">
-        <v>0.05338497547061145</v>
+        <v>0.04817774876382315</v>
       </c>
       <c r="AC3">
-        <v>1.616556146741747</v>
+        <v>0.4035180574742517</v>
       </c>
       <c r="AD3">
-        <v>0.267</v>
+        <v>0.23</v>
       </c>
       <c r="AE3">
-        <v>0.3903602794472392</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.6573602794472392</v>
+        <v>0.23</v>
       </c>
       <c r="AG3">
-        <v>-132.0426397205528</v>
+        <v>-125.17</v>
       </c>
       <c r="AH3">
-        <v>0.0005708941573726225</v>
+        <v>0.0002299241250387372</v>
       </c>
       <c r="AI3">
-        <v>0.002055809689174156</v>
+        <v>0.0006224122534029713</v>
       </c>
       <c r="AJ3">
-        <v>-0.1296114706688678</v>
+        <v>-0.1430628736013167</v>
       </c>
       <c r="AK3">
-        <v>-0.7058938473380179</v>
+        <v>-0.5127186335149306</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0022983162896395</v>
+        <v>0.002224371373307543</v>
       </c>
       <c r="AP3">
-        <v>-1.136613295118899</v>
+        <v>-1.210541586073501</v>
       </c>
     </row>
     <row r="4">
@@ -859,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0699</v>
+        <v>0.0788</v>
       </c>
       <c r="E4">
-        <v>0.11</v>
+        <v>0.116</v>
       </c>
       <c r="G4">
-        <v>0.1047141264532569</v>
+        <v>0.1333687566418703</v>
       </c>
       <c r="H4">
-        <v>0.1047141264532569</v>
+        <v>0.1333687566418703</v>
       </c>
       <c r="I4">
-        <v>0.1218683416027417</v>
+        <v>0.1339001062699256</v>
       </c>
       <c r="J4">
-        <v>0.08859481162240403</v>
+        <v>0.0933266232444166</v>
       </c>
       <c r="K4">
-        <v>109.7</v>
+        <v>122.6</v>
       </c>
       <c r="L4">
-        <v>0.08735467431119606</v>
+        <v>0.09306209199939273</v>
       </c>
       <c r="M4">
-        <v>5.02</v>
+        <v>17</v>
       </c>
       <c r="N4">
-        <v>0.007138794084186575</v>
+        <v>0.02613374327440431</v>
       </c>
       <c r="O4">
-        <v>0.04576116681859617</v>
+        <v>0.1386623164763459</v>
       </c>
       <c r="P4">
-        <v>5.02</v>
+        <v>17</v>
       </c>
       <c r="Q4">
-        <v>0.007138794084186575</v>
+        <v>0.02613374327440431</v>
       </c>
       <c r="R4">
-        <v>0.04576116681859617</v>
+        <v>0.1386623164763459</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>328.2</v>
+        <v>231.4</v>
       </c>
       <c r="V4">
-        <v>0.4667235494880546</v>
+        <v>0.3557263643351268</v>
       </c>
       <c r="W4">
-        <v>0.1579098891607888</v>
+        <v>0.1577863577863578</v>
       </c>
       <c r="X4">
-        <v>0.05410219829406195</v>
+        <v>0.04867645586533235</v>
       </c>
       <c r="Y4">
-        <v>0.1038076908667269</v>
+        <v>0.1091099019210254</v>
       </c>
       <c r="Z4">
-        <v>2.18119788875362</v>
+        <v>2.225713803007265</v>
       </c>
       <c r="AA4">
-        <v>0.1932428160653123</v>
+        <v>0.2077183535431567</v>
       </c>
       <c r="AB4">
-        <v>0.05342847462782661</v>
+        <v>0.04824367569605216</v>
       </c>
       <c r="AC4">
-        <v>0.1398143414374857</v>
+        <v>0.1594746778471045</v>
       </c>
       <c r="AD4">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE4">
-        <v>4.938683076384795</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>19.43868307638479</v>
+        <v>11</v>
       </c>
       <c r="AG4">
-        <v>-308.7613169236152</v>
+        <v>-220.4</v>
       </c>
       <c r="AH4">
-        <v>0.02689958831657241</v>
+        <v>0.01662887377173091</v>
       </c>
       <c r="AI4">
-        <v>0.02101618564782146</v>
+        <v>0.01097256857855362</v>
       </c>
       <c r="AJ4">
-        <v>-0.7827866032698982</v>
+        <v>-0.5124389676819344</v>
       </c>
       <c r="AK4">
-        <v>-0.5174146166155154</v>
+        <v>-0.2858254441706653</v>
       </c>
       <c r="AL4">
-        <v>0.463</v>
+        <v>0.925</v>
       </c>
       <c r="AM4">
-        <v>0.463</v>
+        <v>0.925</v>
       </c>
       <c r="AN4">
-        <v>0.09043847065427557</v>
+        <v>0.06007646095030039</v>
       </c>
       <c r="AO4">
-        <v>325.9179265658747</v>
+        <v>190.7027027027027</v>
       </c>
       <c r="AP4">
-        <v>-1.92578629653599</v>
+        <v>-1.203713817586019</v>
       </c>
       <c r="AQ4">
-        <v>325.9179265658747</v>
+        <v>190.7027027027027</v>
       </c>
     </row>
     <row r="5">
@@ -993,124 +993,219 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0226</v>
+        <v>-0.0443</v>
       </c>
       <c r="E5">
-        <v>-0.0633</v>
+        <v>-0.163</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>-0.243</v>
       </c>
       <c r="G5">
-        <v>0.1536614645858344</v>
+        <v>0.2154531946508172</v>
       </c>
       <c r="H5">
-        <v>0.1536614645858344</v>
+        <v>0.2154531946508172</v>
       </c>
       <c r="I5">
-        <v>0.1586260208852538</v>
+        <v>0.1589895988112927</v>
       </c>
       <c r="J5">
-        <v>0.155791002639645</v>
+        <v>0.1376909921780818</v>
       </c>
       <c r="K5">
-        <v>12.2</v>
+        <v>6.74</v>
       </c>
       <c r="L5">
-        <v>0.1464585834333733</v>
+        <v>0.100148588410104</v>
       </c>
       <c r="M5">
-        <v>5.39</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.051976856316297</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.4418032786885246</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>5.39</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.051976856316297</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.4418032786885246</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>9.630000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="V5">
-        <v>0.09286403085824495</v>
+        <v>0.1108108108108108</v>
       </c>
       <c r="W5">
-        <v>0.09799196787148594</v>
+        <v>0.05152905198776758</v>
       </c>
       <c r="X5">
-        <v>0.05365266514011797</v>
+        <v>0.04864143590864292</v>
       </c>
       <c r="Y5">
-        <v>0.04433930273136796</v>
+        <v>0.002887616079124661</v>
       </c>
       <c r="Z5">
-        <v>0.7065773306403608</v>
+        <v>0.579622771509775</v>
       </c>
       <c r="AA5">
-        <v>0.1100783907829058</v>
+        <v>0.07980883449819053</v>
       </c>
       <c r="AB5">
-        <v>0.05340094080842425</v>
+        <v>0.04823906252611363</v>
       </c>
       <c r="AC5">
-        <v>0.05667744997448153</v>
+        <v>0.03156977197207689</v>
       </c>
       <c r="AD5">
-        <v>0.71</v>
+        <v>1.28</v>
       </c>
       <c r="AE5">
-        <v>0.3622623012917989</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.072262301291799</v>
+        <v>1.28</v>
       </c>
       <c r="AG5">
-        <v>-8.557737698708202</v>
+        <v>-7.739999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.01023421922692012</v>
+        <v>0.01548137397194001</v>
       </c>
       <c r="AI5">
-        <v>0.006503594275502323</v>
+        <v>0.007348719715237111</v>
       </c>
       <c r="AJ5">
-        <v>-0.0899467543835355</v>
+        <v>-0.1050773825685582</v>
       </c>
       <c r="AK5">
-        <v>-0.05512505146375331</v>
+        <v>-0.04686364737224509</v>
       </c>
       <c r="AL5">
-        <v>0.036</v>
+        <v>0.061</v>
       </c>
       <c r="AM5">
-        <v>0.036</v>
+        <v>0.061</v>
       </c>
       <c r="AN5">
-        <v>0.05150152328449151</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="AO5">
-        <v>361.1111111111111</v>
+        <v>175.4098360655738</v>
       </c>
       <c r="AP5">
-        <v>-0.6207556723275933</v>
+        <v>-0.6910714285714286</v>
       </c>
       <c r="AQ5">
-        <v>361.1111111111111</v>
+        <v>175.4098360655738</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prevention Insurance.Com (OTCPK:PVNC)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="K6">
+        <v>-0.112</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
+      </c>
+      <c r="N6">
+        <v>-0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.3227665706051874</v>
+      </c>
+      <c r="X6">
+        <v>0.04833140718427241</v>
+      </c>
+      <c r="Y6">
+        <v>0.274435163420915</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>-55.99999999999995</v>
+      </c>
+      <c r="AB6">
+        <v>0.04822385452447246</v>
+      </c>
+      <c r="AC6">
+        <v>-56.04822385452442</v>
+      </c>
+      <c r="AD6">
+        <v>0.044</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0.044</v>
+      </c>
+      <c r="AG6">
+        <v>0.044</v>
+      </c>
+      <c r="AH6">
+        <v>0.005204636858291932</v>
+      </c>
+      <c r="AI6">
+        <v>-1.222222222222222</v>
+      </c>
+      <c r="AJ6">
+        <v>0.005204636858291932</v>
+      </c>
+      <c r="AK6">
+        <v>-1.222222222222222</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
